--- a/TP1/mesure-loc.xlsx
+++ b/TP1/mesure-loc.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F8364D-01EB-4984-93F4-E1D328199883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{86830589-EA62-429F-8DD1-156606DA540C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{86830589-EA62-429F-8DD1-156606DA540C}"/>
   </bookViews>
   <sheets>
     <sheet name="LOC" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="UFC" sheetId="4" r:id="rId4"/>
     <sheet name="COM" sheetId="5" r:id="rId5"/>
     <sheet name="MI" sheetId="6" r:id="rId6"/>
+    <sheet name="TCF" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Chemin</t>
   </si>
@@ -136,13 +137,70 @@
   </si>
   <si>
     <t xml:space="preserve">iqsort0 (Commentaire) </t>
+  </si>
+  <si>
+    <t>git restore TP1/mesure-loc.xlsx</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>TCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -228,6 +286,17 @@
       <color theme="1"/>
       <name val="Liberation Serif"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -279,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -299,6 +368,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF9A9A9A"/>
       </bottom>
       <diagonal/>
     </border>
@@ -325,11 +442,105 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="right"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="right"/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -670,13 +881,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="84.77734375" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -692,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -700,7 +911,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -721,21 +932,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B91994-201B-4E8B-831E-7A32961CF54D}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="36.44140625" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="9" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
     <col min="10" max="10" width="49.77734375" customWidth="1"/>
     <col min="11" max="11" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,7 +982,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2">
       <c r="A2" s="1">
         <v>16</v>
       </c>
@@ -789,7 +1005,7 @@
       </c>
       <c r="G2" s="1">
         <f>E2*LOG(F2)</f>
-        <v>89.713730711254385</v>
+        <v>89.71373071125439</v>
       </c>
       <c r="H2" s="1">
         <f>(A2/2)*(D2/C2)</f>
@@ -804,7 +1020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -842,7 +1058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -870,12 +1086,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -889,7 +1108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" s="1">
         <v>13</v>
       </c>
@@ -900,142 +1119,142 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D17" si="0">A2-B2+2*C2</f>
+        <f>A2-B2+2*C2</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <f>A3-B3+2*C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <f>A4-B4+2*C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <f>A5-B5+2*C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <f>A6-B6+2*C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <f>A7-B7+2*C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <f>A8-B8+2*C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <f>A9-B9+2*C9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <f>A10-B10+2*C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <f>A11-B11+2*C11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <f>A12-B12+2*C12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <f>A13-B13+2*C13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <f>A14-B14+2*C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <f>A15-B15+2*C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <f>A16-B16+2*C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f>A17-B17+2*C17</f>
         <v>0</v>
       </c>
     </row>
@@ -1056,13 +1275,19 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="28.21875" customWidth="1"/>
-    <col min="2" max="8" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.649999999999999" customHeight="1">
+    <row r="1" customHeight="1" ht="16.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1076,7 +1301,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1102,7 +1327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1129,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1156,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1210,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1237,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1269,13 +1494,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="41.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1316,12 +1541,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -1338,7 +1567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="1">
         <f>Halstead!G3</f>
         <v>404.23781576013397</v>
@@ -1367,4 +1596,174 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="M12" activeCellId="0" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" ht="17.25">
+      <c r="A1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="32"/>
+    </row>
+    <row r="2" ht="17.25">
+      <c r="A2" s="33">
+        <v>0.6500000000000001</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1E-2</v>
+      </c>
+      <c r="C2" s="33">
+        <v>65</v>
+      </c>
+      <c r="D2" s="33">
+        <v>5</v>
+      </c>
+      <c r="E2" s="33">
+        <v>4</v>
+      </c>
+      <c r="F2" s="33">
+        <v>5</v>
+      </c>
+      <c r="G2" s="33">
+        <v>4</v>
+      </c>
+      <c r="H2" s="33">
+        <v>5</v>
+      </c>
+      <c r="I2" s="33">
+        <v>5</v>
+      </c>
+      <c r="J2" s="33">
+        <v>5</v>
+      </c>
+      <c r="K2" s="33">
+        <v>4</v>
+      </c>
+      <c r="L2" s="33">
+        <v>5</v>
+      </c>
+      <c r="M2" s="33">
+        <v>5</v>
+      </c>
+      <c r="N2" s="33">
+        <v>4</v>
+      </c>
+      <c r="O2" s="33">
+        <v>4</v>
+      </c>
+      <c r="P2" s="33">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="33">
+        <v>5</v>
+      </c>
+      <c r="R2" s="33">
+        <v>1.3</v>
+      </c>
+      <c r="S2" s="32"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>